--- a/src/test/resources/recorder/recorder.xlsx
+++ b/src/test/resources/recorder/recorder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\github\auto-test\src\test\resources\recorder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FB6525-DD85-4B97-88BB-C85BE7C3B65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110811C7-D598-43A1-8B58-89D87F81CF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>open</t>
   </si>
@@ -29,15 +29,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>wait</t>
+    <t>recorder</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{"target":"xpath=//*[@id=\"age\"]"}</t>
+    <t>download/1.mp4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>xpath=//*[@id="age"]</t>
+    <t>waitForElementPresent</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -72,7 +72,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>"http://127.0.0.1:9001/verifyElementPresent/"</t>
+      <t>"http://localhost:9001/waitForElementPresent/"</t>
     </r>
     <r>
       <rPr>
@@ -127,15 +127,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>verifyElementPresent</t>
+    <t>id=sec-5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>recorder</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>download/1.mp4</t>
+    <t>{"target":"id=sec-10","value":"15000"}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -143,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -168,13 +164,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -410,7 +399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,14 +409,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -435,24 +418,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -460,6 +431,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -776,11 +759,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -789,57 +770,51 @@
     <col min="3" max="3" width="71.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.19921875" style="1"/>
+    <col min="6" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>2</v>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
-      <c r="B2" s="15" t="s">
-        <v>8</v>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="9">
-        <v>2000</v>
-      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
+        <v>15000</v>
+      </c>
+      <c r="E3" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
